--- a/day_20_31_08_25/sample.xlsx
+++ b/day_20_31_08_25/sample.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,9 +429,20 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+    </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45900.4495925377</v>
+        <v>45900.57612599931</v>
       </c>
     </row>
   </sheetData>
